--- a/GR_nais_einheiten_unique_v2.xlsx
+++ b/GR_nais_einheiten_unique_v2.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB28F18-5FB2-4A8B-9C6B-B0CD0FE5513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356B741-3C99-4F56-A377-EFFC76F377DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48540" yWindow="30" windowWidth="19215" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1315,7 +1318,8 @@
   <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,209 +1346,209 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>66008</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>70183</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>727</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>47</v>
+        <v>598</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>131</v>
+        <v>269150</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>152</v>
+        <v>305404</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>155</v>
+        <v>800</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>173</v>
+        <v>1169</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>180</v>
+        <v>979</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>209</v>
+        <v>63884</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>220</v>
+        <v>80819</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>221</v>
+        <v>1562</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1552,58 +1556,58 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,13 +1626,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1636,209 +1640,209 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>332</v>
+        <v>15849</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>345</v>
+        <v>2055922</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>417</v>
+        <v>2051780</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>427</v>
+        <v>2085100</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>480</v>
+        <v>417802</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>481</v>
+        <v>3746</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>550</v>
+        <v>575253</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>598</v>
+        <v>5299</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>685</v>
+        <v>12342</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>727</v>
+        <v>506686</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>800</v>
+        <v>2132</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>979</v>
+        <v>758486</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1165</v>
+        <v>1306</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1169</v>
+        <v>70698</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -1846,86 +1850,86 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1190</v>
+        <v>77438</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1223</v>
+        <v>11456</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1306</v>
+        <v>3928</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>1562</v>
+        <v>3761</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>2132</v>
+        <v>2059344</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2450</v>
+        <v>5800</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,237 +1948,234 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>3746</v>
+        <v>2154211</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>3761</v>
+        <v>1791699</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>3928</v>
+        <v>20319</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>4243</v>
+        <v>2020885</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4735</v>
+        <v>1980061</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>4979</v>
+        <v>2003862</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>4982</v>
+        <v>2004001</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>5047</v>
+        <v>2004527</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>5154</v>
+        <v>2058664</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>5299</v>
+        <v>1165</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5800</v>
+        <v>1190</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>5843</v>
+        <v>2450</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>6696</v>
+        <v>53131</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>7436</v>
+        <v>96314</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7496</v>
+        <v>578253</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>9420</v>
+        <v>2095523</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>10225</v>
+        <v>2003725</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
@@ -2182,363 +2183,363 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>11260</v>
+        <v>2003999</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>11287</v>
+        <v>457040</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>11456</v>
+        <v>459987</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>11663</v>
+        <v>15511</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>12255</v>
+        <v>11260</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>12342</v>
+        <v>358085</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>14012</v>
+        <v>631234</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>15511</v>
+        <v>1055345</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>15849</v>
+        <v>514063</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>15958</v>
+        <v>688329</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>20319</v>
+        <v>1268900</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>40879</v>
+        <v>1287512</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41204</v>
+        <v>1919600</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41785</v>
+        <v>1974164</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>53131</v>
+        <v>1955252</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>55771</v>
+        <v>1987872</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>63884</v>
+        <v>935467</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>64891</v>
+        <v>227119</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>66008</v>
+        <v>2146600</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>67133</v>
+        <v>1264724</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>67222</v>
+        <v>1280624</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>69708</v>
+        <v>1267509</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>70183</v>
+        <v>1290033</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>70395</v>
+        <v>12255</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>70698</v>
+        <v>454</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>72120</v>
+        <v>55771</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -2546,55 +2547,55 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>73279</v>
+        <v>345</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>74680</v>
+        <v>347965</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>75880</v>
+        <v>274</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>76872</v>
+        <v>357404</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -2602,125 +2603,125 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>77438</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>80819</v>
+        <v>463770</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>81280</v>
+        <v>292</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="D94" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>83788</v>
+        <v>278</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>94763</v>
+        <v>243554</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>96314</v>
+        <v>562836</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="D97" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>117469</v>
+        <v>615853</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>122374</v>
+        <v>586778</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>122375</v>
+        <v>1144755</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="D100" t="s">
         <v>156</v>
@@ -2728,377 +2729,377 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>123273</v>
+        <v>15958</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="D101" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>123418</v>
+        <v>140422</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D102" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>123530</v>
+        <v>400682</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>137057</v>
+        <v>9420</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>140422</v>
+        <v>354468</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="D105" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>142113</v>
+        <v>10225</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>148475</v>
+        <v>352350</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D107" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>174786</v>
+        <v>11663</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>199114</v>
+        <v>356723</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>222459</v>
+        <v>94763</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C110" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>224599</v>
+        <v>555782</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>227119</v>
+        <v>749654</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="D112" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>237411</v>
+        <v>777174</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="D113" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>243554</v>
+        <v>934003</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="D114" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>253072</v>
+        <v>14012</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="C115" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="D115" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>265461</v>
+        <v>445998</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C116" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>267445</v>
+        <v>449211</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="C117" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>269150</v>
+        <v>627900</v>
       </c>
       <c r="B118" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>285808</v>
+        <v>265461</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="D119" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>305404</v>
+        <v>399660</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D120" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>306965</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>336241</v>
+        <v>209</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>347965</v>
+        <v>64891</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D123" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>349955</v>
+        <v>609414</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="D124" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>352350</v>
+        <v>306965</v>
       </c>
       <c r="B125" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="C125" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D125" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>354468</v>
+        <v>7496</v>
       </c>
       <c r="B126" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C126" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="D126" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>356723</v>
+        <v>7436</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C127" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -3106,13 +3107,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>357404</v>
+        <v>72120</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -3120,97 +3121,97 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>358085</v>
+        <v>222459</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="C129" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="D129" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>368371</v>
+        <v>285808</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C130" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="D130" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>372058</v>
+        <v>510709</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="C131" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="D131" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>399660</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>400682</v>
+        <v>4982</v>
       </c>
       <c r="B133" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="D133" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>405028</v>
+        <v>11287</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D134" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>411603</v>
+        <v>81280</v>
       </c>
       <c r="B135" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="C135" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
@@ -3218,293 +3219,293 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>417802</v>
+        <v>83788</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="C136" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D136" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>439803</v>
+        <v>148475</v>
       </c>
       <c r="B137" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="C137" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="D137" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>445998</v>
+        <v>123273</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="C138" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>449211</v>
+        <v>224599</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="C139" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="D139" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>449258</v>
+        <v>932424</v>
       </c>
       <c r="B140" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>457040</v>
+        <v>372058</v>
       </c>
       <c r="B141" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>459987</v>
+        <v>5843</v>
       </c>
       <c r="B142" t="s">
-        <v>218</v>
+        <v>86</v>
       </c>
       <c r="C142" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>463770</v>
+        <v>4979</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>492334</v>
+        <v>75880</v>
       </c>
       <c r="B144" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D144" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>495246</v>
+        <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>506686</v>
+        <v>983879</v>
       </c>
       <c r="B146" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="C146" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="D146" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>510709</v>
+        <v>253072</v>
       </c>
       <c r="B147" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="C147" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="D147" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>514063</v>
+        <v>73279</v>
       </c>
       <c r="B148" t="s">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="C148" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>555782</v>
+        <v>67222</v>
       </c>
       <c r="B149" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="C149" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="D149" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>562836</v>
+        <v>368371</v>
       </c>
       <c r="B150" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C150" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="D150" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>575253</v>
+        <v>5154</v>
       </c>
       <c r="B151" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="C151" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>578253</v>
+        <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>586778</v>
+        <v>4735</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>609414</v>
+        <v>267445</v>
       </c>
       <c r="B154" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C154" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="D154" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>615853</v>
+        <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>625826</v>
+        <v>70395</v>
       </c>
       <c r="B156" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="C156" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -3512,125 +3513,125 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>627900</v>
+        <v>74680</v>
       </c>
       <c r="B157" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="C157" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="D157" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>631234</v>
+        <v>69708</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="C158" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="D158" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>688329</v>
+        <v>625826</v>
       </c>
       <c r="B159" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D159" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>749654</v>
+        <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>758486</v>
+        <v>40879</v>
       </c>
       <c r="B161" t="s">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="C161" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D161" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>777174</v>
+        <v>1941791</v>
       </c>
       <c r="B162" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="D162" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>827381</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>932424</v>
+        <v>411603</v>
       </c>
       <c r="B164" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C164" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D164" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>934003</v>
+        <v>137057</v>
       </c>
       <c r="B165" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="D165" t="s">
         <v>4</v>
@@ -3638,55 +3639,55 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>935467</v>
+        <v>131</v>
       </c>
       <c r="B166" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>935600</v>
+        <v>41204</v>
       </c>
       <c r="B167" t="s">
-        <v>258</v>
+        <v>116</v>
       </c>
       <c r="C167" t="s">
-        <v>258</v>
+        <v>116</v>
       </c>
       <c r="D167" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>983879</v>
+        <v>41785</v>
       </c>
       <c r="B168" t="s">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c r="C168" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="D168" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>1016747</v>
+        <v>1018000</v>
       </c>
       <c r="B169" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C169" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D169" t="s">
         <v>179</v>
@@ -3694,13 +3695,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>1018000</v>
+        <v>1016747</v>
       </c>
       <c r="B170" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C170" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D170" t="s">
         <v>179</v>
@@ -3708,97 +3709,97 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>1055345</v>
+        <v>1223</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="C171" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="D171" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>1144755</v>
+        <v>37</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="D172" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>1264724</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>1267509</v>
+        <v>155</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>17</v>
       </c>
       <c r="C174" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>1268900</v>
+        <v>76872</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="C175" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="D175" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>1280624</v>
+        <v>685</v>
       </c>
       <c r="B176" t="s">
-        <v>265</v>
+        <v>50</v>
       </c>
       <c r="C176" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="D176" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>1287512</v>
+        <v>122375</v>
       </c>
       <c r="B177" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="C177" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="D177" t="s">
         <v>156</v>
@@ -3806,324 +3807,331 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>1290033</v>
+        <v>449258</v>
       </c>
       <c r="B178" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C178" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="D178" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>1791699</v>
+        <v>122374</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="C179" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="D179" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>1919600</v>
+        <v>123418</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="D180" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>1941791</v>
+        <v>199114</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="C181" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="D181" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>1955252</v>
+        <v>439803</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="C182" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="D182" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>1974164</v>
+        <v>117469</v>
       </c>
       <c r="B183" t="s">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="C183" t="s">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="D183" t="s">
-        <v>279</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>1980061</v>
+        <v>405028</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="C184" t="s">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="D184" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>1987872</v>
+        <v>495246</v>
       </c>
       <c r="B185" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="C185" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="D185" t="s">
-        <v>268</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>2003725</v>
+        <v>336241</v>
       </c>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="C186" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="D186" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>2003862</v>
+        <v>349955</v>
       </c>
       <c r="B187" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="C187" t="s">
-        <v>283</v>
+        <v>166</v>
       </c>
       <c r="D187" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>2003999</v>
+        <v>492334</v>
       </c>
       <c r="B188" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="C188" t="s">
-        <v>284</v>
+        <v>166</v>
       </c>
       <c r="D188" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>2004001</v>
+        <v>142113</v>
       </c>
       <c r="B189" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="C189" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="D189" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>2004527</v>
+        <v>237411</v>
       </c>
       <c r="B190" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C190" t="s">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="D190" t="s">
-        <v>289</v>
+        <v>179</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>2020885</v>
+        <v>827381</v>
       </c>
       <c r="B191" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="C191" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="D191" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>2051780</v>
+        <v>935600</v>
       </c>
       <c r="B192" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C192" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="D192" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>2055922</v>
+        <v>123530</v>
       </c>
       <c r="B193" t="s">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="C193" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="D193" t="s">
-        <v>296</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>2058664</v>
+        <v>2107427</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C194" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D194" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>2059344</v>
+        <v>6696</v>
       </c>
       <c r="B195" t="s">
-        <v>299</v>
+        <v>87</v>
       </c>
       <c r="C195" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="D195" t="s">
-        <v>298</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>2085100</v>
+        <v>174786</v>
       </c>
       <c r="B196" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="C196" t="s">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="D196" t="s">
-        <v>302</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>2095523</v>
+        <v>4243</v>
       </c>
       <c r="B197" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="C197" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="D197" t="s">
-        <v>251</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>2107427</v>
+        <v>67133</v>
       </c>
       <c r="B198" t="s">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="C198" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="D198" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>2146600</v>
+        <v>550</v>
       </c>
       <c r="B199" t="s">
-        <v>306</v>
+        <v>46</v>
       </c>
       <c r="C199" t="s">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="D199" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>2154211</v>
+        <v>5047</v>
       </c>
       <c r="B200" t="s">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="C200" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D200">
+    <sortCondition ref="B1:B200"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>